--- a/data/trans_orig/dukeGLOBAL-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,29</t>
+          <t>47,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>47,8</t>
+          <t>49,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,47</t>
+          <t>46,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,12</t>
+          <t>48,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,79</t>
+          <t>45,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,61</t>
+          <t>48,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,25</t>
+          <t>45,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,16</t>
+          <t>47,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,56</t>
+          <t>46,31</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>47,2</t>
+          <t>48,8</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46,87</t>
+          <t>46,32</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,7</t>
+          <t>48,0</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,22; 50,32</t>
+          <t>46,65; 47,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,46; 49,07</t>
+          <t>48,74; 49,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,68; 48,83</t>
+          <t>46,08; 47,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,97; 48,78</t>
+          <t>47,56; 48,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,22; 47,2</t>
+          <t>44,7; 46,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,83; 47,89</t>
+          <t>47,71; 48,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,53; 47,6</t>
+          <t>45,38; 46,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,07; 49,14</t>
+          <t>47,29; 48,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,56; 48,43</t>
+          <t>45,87; 46,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,13; 48,14</t>
+          <t>48,41; 49,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,78; 47,84</t>
+          <t>45,88; 46,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,63; 48,68</t>
+          <t>47,59; 48,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,82</t>
+          <t>47,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,62</t>
+          <t>48,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,52</t>
+          <t>47,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>49,6</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>46,8</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>47,76</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,06</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47,37</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,23</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>48,04</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>45,3</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>48,58</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>45,9</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,56</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>46,06</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>49,11</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>46,21</t>
+          <t>47,23</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>47,79</t>
+          <t>48,61</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,14; 47,38</t>
+          <t>47,07; 48,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,07; 50,15</t>
+          <t>47,81; 48,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,85; 47,14</t>
+          <t>46,94; 47,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,12; 48,73</t>
+          <t>48,05; 52,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,54; 46,0</t>
+          <t>46,22; 47,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,91; 49,11</t>
+          <t>47,25; 48,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,12; 46,49</t>
+          <t>46,68; 47,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,97; 48,11</t>
+          <t>46,92; 47,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,52; 46,51</t>
+          <t>46,87; 47,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,69; 49,52</t>
+          <t>47,71; 48,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,75; 46,65</t>
+          <t>46,91; 47,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,32; 48,27</t>
+          <t>47,65; 50,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,66</t>
+          <t>48,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,32</t>
+          <t>48,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,41</t>
+          <t>45,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,38</t>
+          <t>48,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,8</t>
+          <t>47,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,76</t>
+          <t>47,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,06</t>
+          <t>45,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,23</t>
+          <t>48,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47,23</t>
+          <t>47,84</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48,04</t>
+          <t>48,0</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47,23</t>
+          <t>45,68</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>47,8</t>
+          <t>48,34</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,07; 48,14</t>
+          <t>47,66; 48,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,81; 48,75</t>
+          <t>47,81; 49,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,94; 47,82</t>
+          <t>45,39; 46,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,72; 49,49</t>
+          <t>47,82; 48,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,22; 47,3</t>
+          <t>46,64; 47,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,25; 48,22</t>
+          <t>47,0; 48,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,68; 47,48</t>
+          <t>45,05; 46,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,77; 47,71</t>
+          <t>47,7; 49,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,87; 47,59</t>
+          <t>47,35; 48,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,35</t>
+          <t>47,58; 48,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,91; 47,52</t>
+          <t>45,35; 46,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,4; 48,4</t>
+          <t>47,94; 48,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,35</t>
+          <t>47,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,4</t>
+          <t>47,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,84</t>
+          <t>47,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,27</t>
+          <t>48,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,33</t>
+          <t>46,49</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,61</t>
+          <t>47,01</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,53</t>
+          <t>46,94</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,0</t>
+          <t>48,51</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,84</t>
+          <t>46,88</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,0</t>
+          <t>47,4</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>47,11</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,13</t>
+          <t>48,41</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,66; 48,98</t>
+          <t>46,77; 47,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,81; 49,0</t>
+          <t>47,32; 48,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,39; 46,32</t>
+          <t>46,83; 47,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,7; 48,82</t>
+          <t>47,73; 48,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,64; 47,88</t>
+          <t>45,9; 47,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,0; 48,13</t>
+          <t>46,52; 47,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,05; 46,0</t>
+          <t>46,41; 47,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,44; 48,55</t>
+          <t>47,91; 50,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,35; 48,24</t>
+          <t>46,46; 47,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,58; 48,4</t>
+          <t>47,09; 47,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,35; 46,0</t>
+          <t>46,78; 47,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,73; 48,55</t>
+          <t>47,98; 49,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,3</t>
+          <t>47,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,83</t>
+          <t>48,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,31</t>
+          <t>46,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,01</t>
+          <t>48,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,49</t>
+          <t>46,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,01</t>
+          <t>47,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,94</t>
+          <t>46,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>47,97</t>
+          <t>48,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>46,88</t>
+          <t>47,06</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>47,4</t>
+          <t>48,0</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47,11</t>
+          <t>46,68</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>47,99</t>
+          <t>48,38</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,77; 47,81</t>
+          <t>47,31; 47,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,32; 48,26</t>
+          <t>48,17; 48,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,83; 47,75</t>
+          <t>46,66; 47,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,47; 48,54</t>
+          <t>48,16; 50,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,9; 47,04</t>
+          <t>46,23; 46,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,52; 47,47</t>
+          <t>47,35; 47,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,41; 47,37</t>
+          <t>46,24; 46,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,51; 48,55</t>
+          <t>47,71; 48,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,46; 47,25</t>
+          <t>46,84; 47,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,09; 47,77</t>
+          <t>47,81; 48,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,78; 47,47</t>
+          <t>46,51; 46,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,6; 48,32</t>
+          <t>48,05; 49,37</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>47,61</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>48,41</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>46,89</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>48,16</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>46,52</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>47,6</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>46,48</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>47,71</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>47,06</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>48,0</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>46,68</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>47,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>47,31; 47,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>48,17; 48,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>46,66; 47,13</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>47,81; 48,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>46,23; 46,84</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>47,35; 47,83</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>46,24; 46,75</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>47,46; 47,96</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>46,84; 47,25</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>47,81; 48,17</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>46,51; 46,86</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>47,71; 48,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/dukeGLOBAL-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Habitat-trans_orig.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,65; 47,71</t>
+          <t>46,65; 47,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,74; 49,81</t>
+          <t>48,8; 49,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,08; 47,23</t>
+          <t>46,08; 47,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,7; 46,04</t>
+          <t>44,66; 46,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,82</t>
+          <t>47,68; 48,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,38; 46,56</t>
+          <t>45,36; 46,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,29; 48,28</t>
+          <t>47,25; 48,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 46,75</t>
+          <t>45,83; 46,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,41; 49,19</t>
+          <t>48,39; 49,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,88; 46,74</t>
+          <t>45,91; 46,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,59; 48,45</t>
+          <t>47,59; 48,4</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,07; 48,14</t>
+          <t>47,14; 48,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,81; 48,75</t>
+          <t>47,83; 48,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,94; 47,82</t>
+          <t>46,97; 47,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,05; 52,26</t>
+          <t>48,02; 52,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,22; 47,3</t>
+          <t>46,28; 47,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,25; 48,22</t>
+          <t>47,28; 48,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,68; 47,48</t>
+          <t>46,65; 47,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,92; 47,83</t>
+          <t>46,91; 47,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,35</t>
+          <t>47,67; 48,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,91; 47,52</t>
+          <t>46,89; 47,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,65; 50,65</t>
+          <t>47,66; 50,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,66; 48,98</t>
+          <t>47,72; 48,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,81; 49,0</t>
+          <t>47,76; 48,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,39; 46,32</t>
+          <t>45,36; 46,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,82; 48,96</t>
+          <t>47,84; 48,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,64; 47,88</t>
+          <t>46,64; 47,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,0; 48,13</t>
+          <t>47,04; 48,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,05; 46,0</t>
+          <t>45,03; 46,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,7; 49,3</t>
+          <t>47,65; 49,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,35; 48,24</t>
+          <t>47,33; 48,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,58; 48,4</t>
+          <t>47,58; 48,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,35; 46,0</t>
+          <t>45,36; 46,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,94; 48,92</t>
+          <t>47,93; 48,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,77; 47,81</t>
+          <t>46,77; 47,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,32; 48,26</t>
+          <t>47,38; 48,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,83; 47,75</t>
+          <t>46,84; 47,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,73; 48,82</t>
+          <t>47,7; 48,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,9; 47,04</t>
+          <t>45,97; 47,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,52; 47,47</t>
+          <t>46,53; 47,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,41; 47,37</t>
+          <t>46,46; 47,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,91; 50,14</t>
+          <t>47,93; 49,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,46; 47,25</t>
+          <t>46,48; 47,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,09; 47,77</t>
+          <t>47,05; 47,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,78; 47,47</t>
+          <t>46,78; 47,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,98; 49,14</t>
+          <t>48,03; 49,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,31; 47,89</t>
+          <t>47,33; 47,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,17; 48,67</t>
+          <t>48,13; 48,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,66; 47,13</t>
+          <t>46,64; 47,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,16; 50,1</t>
+          <t>48,17; 50,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,23; 46,84</t>
+          <t>46,21; 46,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,35; 47,83</t>
+          <t>47,36; 47,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 46,75</t>
+          <t>46,24; 46,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,49</t>
+          <t>47,69; 48,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,84; 47,25</t>
+          <t>46,84; 47,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,81; 48,17</t>
+          <t>47,83; 48,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,51; 46,86</t>
+          <t>46,49; 46,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,37</t>
+          <t>48,03; 49,33</t>
         </is>
       </c>
     </row>
